--- a/igs/all-profiles.xlsx
+++ b/igs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-02T15:10:52+00:00</t>
+    <t>2023-01-02T15:27:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/all-profiles.xlsx
+++ b/igs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-02T15:27:08+00:00</t>
+    <t>2023-01-02T17:59:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
